--- a/Excel/SystemMenu@c.xlsx
+++ b/Excel/SystemMenu@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17680" firstSheet="1"/>
+    <workbookView windowHeight="17325" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -744,14 +744,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1143,10 +1146,10 @@
   <dimension ref="C2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1174,105 +1177,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:14">
+    <row r="3" spans="3:14">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:14">
+    <row r="4" spans="3:14">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:14">
+    <row r="5" spans="3:14">
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
